--- a/SchedulingData/static4/pso/scheduling1_17.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_17.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.90000000000001</v>
+        <v>46.44</v>
       </c>
       <c r="E2" t="n">
-        <v>24.3</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.2</v>
+        <v>84.7</v>
       </c>
       <c r="E3" t="n">
-        <v>26.36</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77.09999999999999</v>
+        <v>54.92</v>
       </c>
       <c r="E4" t="n">
-        <v>24.96</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="5">
@@ -523,169 +523,169 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>76.54000000000001</v>
+        <v>64.42</v>
       </c>
       <c r="E5" t="n">
-        <v>25.996</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53.2</v>
+        <v>54.92</v>
       </c>
       <c r="D6" t="n">
-        <v>106.36</v>
+        <v>125.44</v>
       </c>
       <c r="E6" t="n">
-        <v>22.664</v>
+        <v>21.736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>84.7</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1</v>
+        <v>144.86</v>
       </c>
       <c r="E7" t="n">
-        <v>27.28</v>
+        <v>19.304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="D8" t="n">
-        <v>55.46</v>
+        <v>122.74</v>
       </c>
       <c r="E8" t="n">
-        <v>25.644</v>
+        <v>23.016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>77.09999999999999</v>
+        <v>125.44</v>
       </c>
       <c r="D9" t="n">
-        <v>152.06</v>
+        <v>172.94</v>
       </c>
       <c r="E9" t="n">
-        <v>19.584</v>
+        <v>18.616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>152.06</v>
+        <v>144.86</v>
       </c>
       <c r="D10" t="n">
-        <v>218.2</v>
+        <v>227.86</v>
       </c>
       <c r="E10" t="n">
-        <v>15.6</v>
+        <v>13.604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>128.3</v>
+        <v>55.46</v>
       </c>
       <c r="E11" t="n">
-        <v>21.96</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76.54000000000001</v>
+        <v>172.94</v>
       </c>
       <c r="D12" t="n">
-        <v>128.94</v>
+        <v>235.44</v>
       </c>
       <c r="E12" t="n">
-        <v>22.876</v>
+        <v>15.496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>218.2</v>
+        <v>46.44</v>
       </c>
       <c r="D13" t="n">
-        <v>275.3</v>
+        <v>105.94</v>
       </c>
       <c r="E13" t="n">
-        <v>11.52</v>
+        <v>24.196</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>128.94</v>
+        <v>122.74</v>
       </c>
       <c r="D14" t="n">
-        <v>181.34</v>
+        <v>173.88</v>
       </c>
       <c r="E14" t="n">
-        <v>20.236</v>
+        <v>19.032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>128.3</v>
+        <v>173.88</v>
       </c>
       <c r="D15" t="n">
-        <v>199.3</v>
+        <v>222.12</v>
       </c>
       <c r="E15" t="n">
-        <v>18.48</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68.90000000000001</v>
+        <v>55.46</v>
       </c>
       <c r="D16" t="n">
-        <v>134.52</v>
+        <v>113.52</v>
       </c>
       <c r="E16" t="n">
-        <v>18.868</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55.46</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>108.06</v>
+        <v>53.2</v>
       </c>
       <c r="E17" t="n">
-        <v>22.524</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108.06</v>
+        <v>227.86</v>
       </c>
       <c r="D18" t="n">
-        <v>186.18</v>
+        <v>315.18</v>
       </c>
       <c r="E18" t="n">
-        <v>18.312</v>
+        <v>9.952</v>
       </c>
     </row>
     <row r="19">
@@ -789,245 +789,245 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106.36</v>
+        <v>53.2</v>
       </c>
       <c r="D19" t="n">
-        <v>155.38</v>
+        <v>119.3</v>
       </c>
       <c r="E19" t="n">
-        <v>19.892</v>
+        <v>22.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>199.3</v>
+        <v>119.3</v>
       </c>
       <c r="D20" t="n">
-        <v>242.22</v>
+        <v>165.5</v>
       </c>
       <c r="E20" t="n">
-        <v>14.828</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>275.3</v>
+        <v>105.94</v>
       </c>
       <c r="D21" t="n">
-        <v>340.62</v>
+        <v>172.54</v>
       </c>
       <c r="E21" t="n">
-        <v>8.087999999999999</v>
+        <v>19.156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>134.52</v>
+        <v>113.52</v>
       </c>
       <c r="D22" t="n">
-        <v>179.04</v>
+        <v>153.04</v>
       </c>
       <c r="E22" t="n">
-        <v>16.036</v>
+        <v>19.616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>242.22</v>
+        <v>153.04</v>
       </c>
       <c r="D23" t="n">
-        <v>312.76</v>
+        <v>215.14</v>
       </c>
       <c r="E23" t="n">
-        <v>11.864</v>
+        <v>15.536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>155.38</v>
+        <v>235.44</v>
       </c>
       <c r="D24" t="n">
-        <v>192.38</v>
+        <v>286.06</v>
       </c>
       <c r="E24" t="n">
-        <v>17.812</v>
+        <v>12.064</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>186.18</v>
+        <v>165.5</v>
       </c>
       <c r="D25" t="n">
-        <v>247.24</v>
+        <v>218.3</v>
       </c>
       <c r="E25" t="n">
-        <v>15.816</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>247.24</v>
+        <v>218.3</v>
       </c>
       <c r="D26" t="n">
-        <v>319.64</v>
+        <v>259.74</v>
       </c>
       <c r="E26" t="n">
-        <v>12.696</v>
+        <v>13.216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>312.76</v>
+        <v>222.12</v>
       </c>
       <c r="D27" t="n">
-        <v>362.08</v>
+        <v>254.22</v>
       </c>
       <c r="E27" t="n">
-        <v>9.532</v>
+        <v>14.248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>181.34</v>
+        <v>259.74</v>
       </c>
       <c r="D28" t="n">
-        <v>240.94</v>
+        <v>301.84</v>
       </c>
       <c r="E28" t="n">
-        <v>17.396</v>
+        <v>10.136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>319.64</v>
+        <v>215.14</v>
       </c>
       <c r="D29" t="n">
-        <v>375.64</v>
+        <v>272.54</v>
       </c>
       <c r="E29" t="n">
-        <v>8.736000000000001</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>192.38</v>
+        <v>172.54</v>
       </c>
       <c r="D30" t="n">
-        <v>273.38</v>
+        <v>228.78</v>
       </c>
       <c r="E30" t="n">
-        <v>14.292</v>
+        <v>15.152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>240.94</v>
+        <v>228.78</v>
       </c>
       <c r="D31" t="n">
-        <v>289.08</v>
+        <v>304.28</v>
       </c>
       <c r="E31" t="n">
-        <v>14.692</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>289.08</v>
+        <v>254.22</v>
       </c>
       <c r="D32" t="n">
-        <v>360.02</v>
+        <v>287.82</v>
       </c>
       <c r="E32" t="n">
-        <v>11.188</v>
+        <v>11.528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>273.38</v>
+        <v>272.54</v>
       </c>
       <c r="D33" t="n">
-        <v>345.48</v>
+        <v>308.8</v>
       </c>
       <c r="E33" t="n">
-        <v>11.212</v>
+        <v>9.92</v>
       </c>
     </row>
   </sheetData>
